--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3140542.514710449</v>
+        <v>3154405.545419008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>127.0354994972996</v>
+        <v>37.42681674263682</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>147.3452674905973</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>148.9140204178046</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464242</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>214.277328786426</v>
       </c>
       <c r="G5" t="n">
-        <v>119.2773778071525</v>
+        <v>372.0396308464242</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385216</v>
+        <v>120.1819171385212</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281879</v>
+        <v>80.69052336281868</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129677</v>
+        <v>84.45800155129655</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.1534370626265</v>
       </c>
       <c r="T6" t="n">
-        <v>143.1362839714175</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>62.26390729945653</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>282.5860313669124</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>163.0915657041714</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>287.2841839626593</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017897</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H13" t="n">
-        <v>126.4476979561456</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.3851144237347</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>215.0546805228906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766701</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>117.1709514206838</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>187.8326399421087</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>11.89446409565971</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274147</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>29.22049955591125</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113181</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>21.77710812149429</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>26.0486814538071</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952497972</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>28.56876306769571</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>49.65580737697947</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274061</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249799</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.14085215535583</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274063</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5.459896748110792</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V43" t="n">
-        <v>162.6705139454673</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051966</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>9.035779589415966</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>429.3571808938199</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="C2" t="n">
-        <v>429.3571808938199</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="D2" t="n">
-        <v>429.3571808938199</v>
+        <v>338.843359929514</v>
       </c>
       <c r="E2" t="n">
-        <v>429.3571808938199</v>
+        <v>338.843359929514</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U2" t="n">
-        <v>708.3031543305426</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="V2" t="n">
-        <v>708.3031543305426</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="W2" t="n">
-        <v>708.3031543305426</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="X2" t="n">
-        <v>708.3031543305426</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="Y2" t="n">
-        <v>708.3031543305426</v>
+        <v>617.7893333662366</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.0801083504305</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C3" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D3" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618844</v>
+        <v>42.78065525324462</v>
       </c>
       <c r="L3" t="n">
-        <v>22.09252109618844</v>
+        <v>288.9361218459456</v>
       </c>
       <c r="M3" t="n">
-        <v>295.4874696615203</v>
+        <v>288.9361218459456</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>954.2078523671951</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>954.2078523671951</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="U3" t="n">
-        <v>954.2078523671951</v>
+        <v>406.078232853787</v>
       </c>
       <c r="V3" t="n">
-        <v>719.0557441354524</v>
+        <v>170.9261246220443</v>
       </c>
       <c r="W3" t="n">
-        <v>719.0557441354524</v>
+        <v>170.9261246220443</v>
       </c>
       <c r="X3" t="n">
-        <v>719.0557441354524</v>
+        <v>170.9261246220443</v>
       </c>
       <c r="Y3" t="n">
-        <v>511.2954453704985</v>
+        <v>170.9261246220443</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>689.4035762684174</v>
+        <v>990.9650405726209</v>
       </c>
       <c r="C5" t="n">
-        <v>689.4035762684174</v>
+        <v>622.0025236322092</v>
       </c>
       <c r="D5" t="n">
-        <v>689.4035762684174</v>
+        <v>622.0025236322092</v>
       </c>
       <c r="E5" t="n">
-        <v>689.4035762684174</v>
+        <v>622.0025236322092</v>
       </c>
       <c r="F5" t="n">
-        <v>682.4580755192139</v>
+        <v>405.560777383294</v>
       </c>
       <c r="G5" t="n">
-        <v>561.9758757140094</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380411</v>
+        <v>57.64391735380482</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456881</v>
+        <v>220.1747338456896</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039979</v>
+        <v>474.0852112040005</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494166</v>
+        <v>773.2160860494203</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635727</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.582309293135</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935888</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385697</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488193</v>
+        <v>1366.762647488201</v>
       </c>
       <c r="S5" t="n">
-        <v>1166.509506436748</v>
+        <v>1366.762647488201</v>
       </c>
       <c r="T5" t="n">
-        <v>943.2498839460361</v>
+        <v>1366.762647488201</v>
       </c>
       <c r="U5" t="n">
-        <v>689.4035762684174</v>
+        <v>1366.762647488201</v>
       </c>
       <c r="V5" t="n">
-        <v>689.4035762684174</v>
+        <v>1366.762647488201</v>
       </c>
       <c r="W5" t="n">
-        <v>689.4035762684174</v>
+        <v>1366.762647488201</v>
       </c>
       <c r="X5" t="n">
-        <v>689.4035762684174</v>
+        <v>1366.762647488201</v>
       </c>
       <c r="Y5" t="n">
-        <v>689.4035762684174</v>
+        <v>1366.762647488201</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>815.3528986892816</v>
+        <v>570.731742752636</v>
       </c>
       <c r="C6" t="n">
-        <v>815.3528986892816</v>
+        <v>396.278713471509</v>
       </c>
       <c r="D6" t="n">
-        <v>666.4184890280303</v>
+        <v>396.278713471509</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>396.278713471509</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>249.744155498394</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>111.2687496220763</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>111.2687496220763</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782857</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361415</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822778</v>
+        <v>314.081179613851</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202359</v>
+        <v>682.400414151811</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358694001</v>
+        <v>1050.719648689771</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241719</v>
+        <v>1257.711717241726</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385697</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385697</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707612</v>
+        <v>1402.84741070762</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707612</v>
+        <v>1261.278282361532</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.265305685978</v>
+        <v>1060.12120771258</v>
       </c>
       <c r="U6" t="n">
-        <v>1258.265305685978</v>
+        <v>1060.12120771258</v>
       </c>
       <c r="V6" t="n">
-        <v>1023.113197454235</v>
+        <v>824.9690994808377</v>
       </c>
       <c r="W6" t="n">
-        <v>1023.113197454235</v>
+        <v>570.731742752636</v>
       </c>
       <c r="X6" t="n">
-        <v>1023.113197454235</v>
+        <v>570.731742752636</v>
       </c>
       <c r="Y6" t="n">
-        <v>815.3528986892816</v>
+        <v>570.731742752636</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888164</v>
+        <v>32.09990175888212</v>
       </c>
       <c r="L7" t="n">
-        <v>90.6165479061128</v>
+        <v>90.61654790611371</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236689</v>
+        <v>162.7032697236703</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400023</v>
+        <v>238.5105468400041</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057948</v>
+        <v>292.514541505797</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918703</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918678</v>
+        <v>252.3107705358536</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918678</v>
+        <v>252.3107705358536</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918678</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918678</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918678</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918678</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.826587676352</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>769.0383350781076</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>358.0524302885</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G8" t="n">
-        <v>344.1290262270909</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224088</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4820,7 +4820,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4844,10 +4844,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,31 +4881,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4963,49 +4963,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.444496000547</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>184.0273259635864</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845922</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528587</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>838.7979023112821</v>
+        <v>434.3285960683725</v>
       </c>
       <c r="C13" t="n">
-        <v>669.8617193833752</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D13" t="n">
-        <v>519.7450799710394</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E13" t="n">
-        <v>371.8319863886463</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F13" t="n">
-        <v>224.942038890736</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G13" t="n">
-        <v>224.942038890736</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347409</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141522</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141522</v>
+        <v>809.2953582963241</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.446367141522</v>
+        <v>809.2953582963241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1020.446367141522</v>
+        <v>615.9770608986123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,13 +5267,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5282,25 +5282,25 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>410.8745301331627</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.771599890051</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1943.227873734289</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X16" t="n">
-        <v>1281.689320534781</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y16" t="n">
-        <v>1060.896741391251</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>362.4615353427254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>362.4615353427254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>362.4615353427254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>215.571587844815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706323</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>531.3977182706323</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.3977182706323</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766204</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>515.5693341162779</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>367.6562405338848</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>220.7662930359744</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557903</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557903</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382247</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515098</v>
@@ -6248,7 +6248,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030231</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>538.8019868198129</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>538.8019868198129</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>388.6853474074771</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181194</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201021</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>720.4504516500526</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,13 +6494,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6646,22 +6646,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028587</v>
@@ -6686,31 +6686,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619851</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3800.532462543056</v>
+        <v>862.6633074373284</v>
       </c>
       <c r="C34" t="n">
-        <v>3800.532462543056</v>
+        <v>693.7271245094215</v>
       </c>
       <c r="D34" t="n">
-        <v>3800.532462543056</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E34" t="n">
-        <v>3800.532462543056</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F34" t="n">
-        <v>3653.642515045146</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>3485.467193364967</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365625</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>4236.865415579183</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>3982.180927373296</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>3982.180927373296</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X34" t="n">
-        <v>3982.180927373296</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y34" t="n">
-        <v>3982.180927373296</v>
+        <v>1044.311772267568</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6959,22 +6959,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014289</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.56127523126</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141864</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -6999,40 +6999,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>846.3978353108172</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C37" t="n">
-        <v>677.4616523829103</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705745</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1298.996260473455</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1248.838879284587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>1028.046300141057</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>1029.666285013067</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>860.7301020851606</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>710.613462672825</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>562.700369090432</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7351,31 +7351,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1432.107328986837</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1432.107328986837</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1432.107328986837</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>1432.107328986837</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>1432.107328986837</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>1432.107328986837</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1432.107328986837</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>1211.314749843307</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011341</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665167</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>710.6134626728254</v>
+        <v>266.1532743881926</v>
       </c>
       <c r="C43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7588,31 +7588,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227924</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V43" t="n">
-        <v>710.6134626728254</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="W43" t="n">
-        <v>710.6134626728254</v>
+        <v>720.4504516500538</v>
       </c>
       <c r="X43" t="n">
-        <v>710.6134626728254</v>
+        <v>492.4609007520365</v>
       </c>
       <c r="Y43" t="n">
-        <v>710.6134626728254</v>
+        <v>271.6683216085065</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7625,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>367.9953723409932</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8787329286575</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>140.2042795376257</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>381.2889504813198</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.947396794838</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357509</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835736</v>
+        <v>450.1033532835746</v>
       </c>
       <c r="N6" t="n">
-        <v>144.669360756345</v>
+        <v>437.615280947047</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>291.5160437006034</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247341</v>
+        <v>107.7037345247337</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747269</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>285.1031356539325</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445216</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504496</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>124.3400780863225</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>182.0340742867942</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445216</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776746</v>
+        <v>176.7176547498446</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445216</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.0374492781462</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>87.16935584025333</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>52.49733361305243</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>52.49733361305243</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297738</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978203</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928291</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297922</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O42" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928291</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>176.7176547498447</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445216</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.46613041139054</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>27.1995389283602</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>10.65497486614655</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>61.34209567542473</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>49.32261704269374</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>10.08817004149458</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>154.5991043677179</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>117.2134630906579</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>126.8383648967181</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>122.865146913729</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>117.8651995788735</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>176.0538480120577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>43.82350024843683</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>174.3720834338264</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>89.46712937836071</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>137.3981830571532</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338523</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>769439.7746154808</v>
+        <v>769439.7746154809</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>727074.4823335805</v>
+        <v>727074.4823335804</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>727074.4823335805</v>
+        <v>727074.4823335804</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>727074.4823335805</v>
+        <v>727074.4823335804</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>727074.4823335805</v>
+        <v>727074.4823335804</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>684300.8545409902</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.151770384</v>
+        <v>106137.1517703861</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252107</v>
+        <v>316711.9424252084</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113912</v>
+        <v>72254.69487113891</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313412</v>
+        <v>24677.2460931348</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817141</v>
+        <v>76496.15793817086</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318756.6528900198</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>288740.7721312275</v>
+        <v>286886.6599484425</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>45115.60258318324</v>
+        <v>43561.42148316542</v>
       </c>
       <c r="F4" t="n">
-        <v>45115.60258318324</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="G4" t="n">
-        <v>45115.60258318324</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="H4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316548</v>
       </c>
       <c r="J4" t="n">
-        <v>45115.60258318321</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>45115.60258318322</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>45115.60258318322</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
-        <v>45115.60258318319</v>
+        <v>43561.42148316566</v>
       </c>
       <c r="N4" t="n">
-        <v>45115.60258318319</v>
+        <v>43561.42148316563</v>
       </c>
       <c r="O4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316564</v>
       </c>
       <c r="P4" t="n">
-        <v>45115.60258318324</v>
+        <v>43561.42148316551</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485716</v>
+        <v>58810.42201485731</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871658</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222180.1747776346</v>
+        <v>224009.8592307431</v>
       </c>
       <c r="C6" t="n">
-        <v>264723.2027147795</v>
+        <v>266577.3148975621</v>
       </c>
       <c r="D6" t="n">
-        <v>124702.8172346571</v>
+        <v>126633.9317502006</v>
       </c>
       <c r="E6" t="n">
-        <v>22037.88953219417</v>
+        <v>23592.07063221175</v>
       </c>
       <c r="F6" t="n">
-        <v>547197.9260090903</v>
+        <v>548752.1071091082</v>
       </c>
       <c r="G6" t="n">
-        <v>547197.9260090905</v>
+        <v>548752.1071091084</v>
       </c>
       <c r="H6" t="n">
-        <v>547197.9260090903</v>
+        <v>548752.1071091081</v>
       </c>
       <c r="I6" t="n">
-        <v>547197.9260090904</v>
+        <v>548752.1071091082</v>
       </c>
       <c r="J6" t="n">
-        <v>474943.2311379511</v>
+        <v>476497.4122379691</v>
       </c>
       <c r="K6" t="n">
-        <v>522520.6799159561</v>
+        <v>524074.8610159732</v>
       </c>
       <c r="L6" t="n">
-        <v>470701.7680709189</v>
+        <v>472255.9491709373</v>
       </c>
       <c r="M6" t="n">
-        <v>412396.910775253</v>
+        <v>413951.0918752714</v>
       </c>
       <c r="N6" t="n">
-        <v>547197.9260090909</v>
+        <v>548752.1071091078</v>
       </c>
       <c r="O6" t="n">
-        <v>547197.9260090905</v>
+        <v>548752.1071091079</v>
       </c>
       <c r="P6" t="n">
-        <v>547197.9260090906</v>
+        <v>548752.1071091081</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593892</v>
+        <v>117.5602045593909</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541004</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464224</v>
+        <v>372.0396308464242</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26808,19 +26808,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253572</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.5389438402639</v>
+        <v>82.53894384026553</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576974</v>
+        <v>260.1834596576954</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406682</v>
+        <v>95.88311714406882</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081332</v>
+        <v>302.2476419081314</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406655</v>
+        <v>95.88311714406882</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081335</v>
+        <v>302.2476419081313</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406682</v>
+        <v>95.88311714406882</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081332</v>
+        <v>302.2476419081314</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>279.8405462444118</v>
+        <v>369.4492289990746</v>
       </c>
       <c r="G2" t="n">
         <v>139.005434824964</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>19.18791615927006</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.36995220352856</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115928</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705633</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>192.5987169552854</v>
       </c>
       <c r="G5" t="n">
-        <v>295.5527558705579</v>
+        <v>42.79050283128612</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280907</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409303</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>26.83287115150358</v>
       </c>
       <c r="T6" t="n">
-        <v>56.00921993104484</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27789,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>160.3423548015529</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358474</v>
+        <v>78.37121764358454</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322661</v>
+        <v>6.146545063769842</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255179</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>3.936966969678565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>218.8388043680904</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>36.63858880169789</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>4.910330425104604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724742</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,13 +29560,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29575,10 +29575,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,22 +29746,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31072,16 +31072,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31139,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31221,10 +31221,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47260383742468</v>
+        <v>0.4726038374246865</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025505</v>
+        <v>4.840054050025572</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231499</v>
+        <v>18.22005944231524</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662297</v>
+        <v>40.11165994662352</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480969</v>
+        <v>60.11698038481051</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439525</v>
+        <v>74.58043007439628</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819639</v>
+        <v>82.98509856819754</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127928</v>
+        <v>84.32788422128044</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288762</v>
+        <v>79.62842981288871</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646581</v>
+        <v>67.96102257646675</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869444</v>
+        <v>51.03589764869515</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262808</v>
+        <v>29.68720080262849</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531491</v>
+        <v>10.76945994531505</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326538</v>
+        <v>2.068823298326566</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397439</v>
+        <v>0.03780830699397491</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560448</v>
+        <v>0.2528653456560482</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941275</v>
+        <v>2.442146890941308</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859628</v>
+        <v>8.7061094885964</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182834</v>
+        <v>23.89022987182867</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078333</v>
+        <v>40.8322080307839</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483552</v>
+        <v>54.90394270483628</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486712</v>
+        <v>64.070311484868</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270964</v>
+        <v>65.76606198271055</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106781</v>
+        <v>60.16309827106864</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496877</v>
+        <v>48.28619043496943</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.2780395612874</v>
+        <v>32.27803956128785</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134637</v>
+        <v>15.69983260134658</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707671</v>
+        <v>4.696862889707735</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359233</v>
+        <v>1.019224792359247</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368716</v>
+        <v>0.01663587800368739</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005379</v>
+        <v>0.2119938115005409</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886602</v>
+        <v>1.884817705886628</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761634</v>
+        <v>6.375232076761722</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308803</v>
+        <v>14.98796247308824</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342613</v>
+        <v>24.62982646342647</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072544</v>
+        <v>31.51769812072587</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094341</v>
+        <v>33.23099356094387</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898689</v>
+        <v>32.44083480898733</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736696</v>
+        <v>29.96436164736737</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275596</v>
+        <v>25.63968789275631</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846777</v>
+        <v>17.75159088846802</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651458</v>
+        <v>9.53201265165159</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513919</v>
+        <v>3.69447396951397</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477528</v>
+        <v>0.9057917400477653</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912027</v>
+        <v>0.01156329880912042</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424823</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14.52678165662553</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>269.5389906563205</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34872,7 +34872,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.9166388158319</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201045</v>
+        <v>28.162370592011</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109939</v>
+        <v>164.1725419109947</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548585</v>
+        <v>256.4752296548595</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337561</v>
+        <v>302.1523988337573</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366726</v>
+        <v>292.2617450366737</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539462</v>
+        <v>230.3303996539473</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926789</v>
+        <v>158.5267349926798</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414964</v>
+        <v>41.04519843415034</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557048</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690029</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284205</v>
+        <v>287.1899082284212</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464224</v>
+        <v>372.0396308464242</v>
       </c>
       <c r="N6" t="n">
-        <v>79.09371065572137</v>
+        <v>372.0396308464242</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033529</v>
+        <v>209.0828975272276</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605757</v>
+        <v>232.7745516605763</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543279</v>
+        <v>2.360334637543616</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104158</v>
+        <v>59.10772338104201</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278399</v>
+        <v>72.81487052278446</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821548</v>
+        <v>76.57300718821593</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140663</v>
+        <v>54.54948956140704</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764945</v>
+        <v>22.9182471576498</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535759</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.580930408112</v>
@@ -35492,7 +35492,7 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>534.3608406099569</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504664</v>
@@ -35504,10 +35504,10 @@
         <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178474</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556542</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187465</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109065</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>274.9155166742618</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594836</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>389.1274892183189</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.580930408112</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>537.666887533699</v>
+        <v>425.975359705869</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192544</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382552</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>336.4270607962777</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382552</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349307</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221084</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556567</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789727</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718749</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879393</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O42" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556567</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789727</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718749</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221084</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>425.975359705869</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504664</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3236089.587957304</v>
+        <v>3228916.299247019</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>111.8735509699801</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>38.70518967089868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>90.03515259299036</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>37.38465999357997</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.884372849250095</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.30468686766753</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464236</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464223</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464223</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.03273108898371</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>330.0010370174819</v>
+        <v>372.0396308464236</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281881</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.5198592233549</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.9546773564123</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>136.1520687203448</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358476</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>204.2148137233275</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>302.4764856097666</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.8468108881584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.0367732907332</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274057</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>72.27877819224054</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>177.9073576508138</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>161.8388177238272</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>142.1196107411498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>86.70314296810756</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>101.9713292450798</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>27.24542190121286</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>25.82923535834103</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>220.8623730742129</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>86.64257830589487</v>
       </c>
       <c r="F31" t="n">
-        <v>44.62928029790825</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634792</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>122.6238729027269</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.58716462297951</v>
+        <v>256.1498215708847</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>161.2173728122517</v>
+        <v>160.244850857304</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>101.9557483937988</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>139.0551504791173</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>174.2047074874387</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>234.8620629871508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>429.3571808938199</v>
+        <v>68.13417302811786</v>
       </c>
       <c r="C2" t="n">
-        <v>429.3571808938199</v>
+        <v>68.13417302811786</v>
       </c>
       <c r="D2" t="n">
-        <v>316.3535940554561</v>
+        <v>68.13417302811786</v>
       </c>
       <c r="E2" t="n">
-        <v>316.3535940554561</v>
+        <v>68.13417302811786</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>61.18867227891438</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618844</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U2" t="n">
-        <v>708.3031543305426</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="V2" t="n">
-        <v>708.3031543305426</v>
+        <v>347.0801464648406</v>
       </c>
       <c r="W2" t="n">
-        <v>708.3031543305426</v>
+        <v>347.0801464648406</v>
       </c>
       <c r="X2" t="n">
-        <v>708.3031543305426</v>
+        <v>68.13417302811786</v>
       </c>
       <c r="Y2" t="n">
-        <v>708.3031543305426</v>
+        <v>68.13417302811786</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.540559203507</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="C3" t="n">
-        <v>507.5959606247288</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D3" t="n">
-        <v>507.5959606247288</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>507.5959606247288</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114809</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N3" t="n">
-        <v>958.7443668768128</v>
+        <v>815.0378848195533</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>806.3008579684609</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>806.3008579684609</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>806.3008579684609</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>806.3008579684609</v>
+        <v>1066.863771987624</v>
       </c>
       <c r="X3" t="n">
-        <v>806.3008579684609</v>
+        <v>859.0122717820911</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.540559203507</v>
+        <v>651.2519730171373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>126.9677807731686</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="D4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4509,31 +4509,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.3583842988699</v>
+        <v>427.486211140285</v>
       </c>
       <c r="C5" t="n">
-        <v>781.3583842988699</v>
+        <v>427.486211140285</v>
       </c>
       <c r="D5" t="n">
-        <v>781.3583842988699</v>
+        <v>427.486211140285</v>
       </c>
       <c r="E5" t="n">
-        <v>781.3583842988699</v>
+        <v>51.68860422470561</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832918</v>
+        <v>44.74310347550214</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380406</v>
+        <v>57.64391735380445</v>
       </c>
       <c r="K5" t="n">
-        <v>220.174733845688</v>
+        <v>220.174733845689</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039979</v>
+        <v>474.0852112039997</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494166</v>
+        <v>773.216086049419</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635726</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.582309293133</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935886</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385689</v>
+        <v>1487.115360669549</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385689</v>
+        <v>1487.115360669549</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385689</v>
+        <v>1487.115360669549</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385689</v>
+        <v>1487.115360669549</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385689</v>
+        <v>1156.052473325979</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385689</v>
+        <v>803.2838180558645</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.692765124609</v>
+        <v>803.2838180558645</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.3583842988699</v>
+        <v>427.486211140285</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>666.4184890280303</v>
+        <v>658.9226223886627</v>
       </c>
       <c r="C6" t="n">
-        <v>666.4184890280303</v>
+        <v>484.4695931075357</v>
       </c>
       <c r="D6" t="n">
-        <v>666.4184890280303</v>
+        <v>335.5351834462844</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>176.2977284408289</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782854</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="K6" t="n">
-        <v>111.4085491144798</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="L6" t="n">
-        <v>111.4085491144798</v>
+        <v>314.0811796138507</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524378</v>
+        <v>682.4004141518101</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903959</v>
+        <v>949.3968358694042</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562715</v>
+        <v>1257.711717241724</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706685</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R6" t="n">
-        <v>1446.219271644926</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="S6" t="n">
-        <v>1277.546233044795</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="T6" t="n">
-        <v>1277.546233044795</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="U6" t="n">
-        <v>1277.546233044795</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="V6" t="n">
-        <v>1042.394124813052</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="W6" t="n">
-        <v>1042.394124813052</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>1042.394124813052</v>
+        <v>1034.898258173685</v>
       </c>
       <c r="Y6" t="n">
-        <v>834.6338260480984</v>
+        <v>827.1379594087307</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9260165723448</v>
+        <v>167.2905126094764</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888161</v>
+        <v>32.09990175888196</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611274</v>
+        <v>90.6165479061134</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236689</v>
+        <v>162.7032697236698</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400022</v>
+        <v>238.5105468400035</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057947</v>
+        <v>292.5145415057963</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9260165723448</v>
+        <v>315.2036061918695</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>554.3544657309461</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>554.3544657309461</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>404.2378263186104</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2484.468242641993</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.0685056491545</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C13" t="n">
-        <v>579.0685056491545</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883055</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793943</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="14">
@@ -5269,34 +5269,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,13 +5305,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211725</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011342</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333287</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333287</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>935.2389750768955</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3177.42741301205</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.8019868198124</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500522</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="X19" t="n">
-        <v>720.4504516500522</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.4504516500522</v>
+        <v>879.5496456007323</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>462.1710339621928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>462.1710339621928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>462.1710339621928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.1710339621928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>462.1710339621928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293931</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924326</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>643.8194987924326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>643.8194987924326</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1360.320538936684</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1360.320538936684</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1071.191900150243</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>816.5074119443557</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>816.5074119443557</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>816.5074119443557</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.7148328008255</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,28 +6247,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256434</v>
@@ -6311,19 +6311,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929844</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.14914771935</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V28" t="n">
-        <v>4437.14914771935</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>4147.73197768239</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>3924.638671546821</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,16 +6448,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,22 +6466,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6505,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3177.42741301205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>460.5891336617992</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C31" t="n">
-        <v>460.5891336617992</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="D31" t="n">
-        <v>310.4724942494635</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="E31" t="n">
-        <v>310.4724942494635</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>909.3712637033467</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>909.3712637033467</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X31" t="n">
-        <v>681.3817128053294</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y31" t="n">
-        <v>460.5891336617992</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6697,19 +6697,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
@@ -6785,16 +6785,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3751.954074726125</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>3583.017891798218</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>3583.017891798218</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3583.017891798218</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3583.017891798218</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3583.017891798218</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>4382.384669597912</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>4382.384669597912</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>4154.395118699895</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>3933.602539556365</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6919,34 +6919,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7019,22 +7019,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>576.4342094797788</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>576.4342094797788</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7183,7 +7183,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>558.0926555785013</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D40" t="n">
-        <v>245.1301850426789</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X40" t="n">
-        <v>558.0926555785013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y40" t="n">
-        <v>558.0926555785013</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,22 +7435,22 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108312</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014776</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>3802.012779407237</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>4131.87540707127</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.69918977486</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1395.930666119722</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1106.80202733328</v>
       </c>
       <c r="V43" t="n">
-        <v>675.007103038344</v>
+        <v>852.117539127393</v>
       </c>
       <c r="W43" t="n">
-        <v>385.5899330013834</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X43" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y43" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,16 +7669,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>991.0842369787849</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C46" t="n">
-        <v>822.148054050878</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
         <v>359.1696912903951</v>
@@ -7803,7 +7803,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1211.876816122315</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1211.876816122315</v>
+        <v>1261.681863500174</v>
       </c>
       <c r="V46" t="n">
-        <v>1211.876816122315</v>
+        <v>1261.681863500174</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.876816122315</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.876816122315</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.0842369787849</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,13 +8072,13 @@
         <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3176965815309</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>153.6907277247511</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948381</v>
       </c>
       <c r="K6" t="n">
-        <v>156.335671839183</v>
+        <v>97.00923094357529</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503871</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835735</v>
+        <v>450.1033532835742</v>
       </c>
       <c r="N6" t="n">
-        <v>437.615280947046</v>
+        <v>335.2690053709202</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247338</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>50.62661940943536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>145.2351313103784</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,22 +9959,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>308.1251096272036</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>145.2351313103784</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>104.8749102765749</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>158.8724419039323</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>306.1147370139962</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>76.33669482597182</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>47.80229773822336</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>124.6841806127638</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>25.12721035747808</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>134.8444180902817</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>64.5222392182978</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>170.6753880823904</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>199.8804200306961</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>4.84728231482427</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>59.7913843406743</v>
       </c>
       <c r="F31" t="n">
-        <v>100.791767725023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>26.2899554648092</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.9358337136115</v>
+        <v>30.37317676570626</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>6.029448286376095</v>
+        <v>7.001970241323789</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>119.5918126645904</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>86.65450490991981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>47.34285357095058</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>51.37528941142659</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>727074.4823335804</v>
+        <v>727074.4823335805</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>727074.4823335804</v>
+        <v>727074.4823335805</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>727074.4823335806</v>
+        <v>727074.4823335805</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312472</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409899</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409909</v>
-      </c>
-      <c r="G2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409907</v>
-      </c>
       <c r="I2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.85454099</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="O2" t="n">
-        <v>684300.8545409905</v>
-      </c>
       <c r="P2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703839</v>
+        <v>106137.1517703854</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252108</v>
+        <v>316711.9424252093</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113904</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313424</v>
+        <v>24677.24609313453</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817138</v>
+        <v>76496.15793817102</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,7 +26420,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484431</v>
+        <v>286886.6599484427</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,10 +26429,10 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
+        <v>43561.42148316556</v>
+      </c>
+      <c r="G4" t="n">
         <v>43561.42148316555</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43561.42148316554</v>
       </c>
       <c r="H4" t="n">
         <v>43561.42148316556</v>
@@ -26441,25 +26441,25 @@
         <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.42148316561</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316554</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316563</v>
       </c>
       <c r="M4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.42148316561</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316556</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485715</v>
+        <v>58810.42201485726</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224009.8592307421</v>
+        <v>224009.8592307419</v>
       </c>
       <c r="C6" t="n">
-        <v>266577.3148975639</v>
+        <v>266577.3148975627</v>
       </c>
       <c r="D6" t="n">
-        <v>126633.931750198</v>
+        <v>126633.9317501997</v>
       </c>
       <c r="E6" t="n">
-        <v>23592.0706322114</v>
+        <v>22617.47937249024</v>
       </c>
       <c r="F6" t="n">
-        <v>548752.1071091085</v>
+        <v>547777.5158493861</v>
       </c>
       <c r="G6" t="n">
-        <v>548752.1071091087</v>
+        <v>547777.5158493863</v>
       </c>
       <c r="H6" t="n">
-        <v>548752.1071091085</v>
+        <v>547777.515849386</v>
       </c>
       <c r="I6" t="n">
-        <v>548752.1071091085</v>
+        <v>547777.5158493866</v>
       </c>
       <c r="J6" t="n">
-        <v>476497.412237969</v>
+        <v>475522.8209782473</v>
       </c>
       <c r="K6" t="n">
-        <v>524074.8610159737</v>
+        <v>523100.2697562516</v>
       </c>
       <c r="L6" t="n">
-        <v>472255.9491709371</v>
+        <v>471281.3579112154</v>
       </c>
       <c r="M6" t="n">
-        <v>413951.0918752709</v>
+        <v>412976.5006155493</v>
       </c>
       <c r="N6" t="n">
-        <v>548752.1071091079</v>
+        <v>547777.5158493861</v>
       </c>
       <c r="O6" t="n">
-        <v>548752.1071091084</v>
+        <v>547777.5158493862</v>
       </c>
       <c r="P6" t="n">
-        <v>548752.1071091081</v>
+        <v>547777.5158493862</v>
       </c>
     </row>
   </sheetData>
@@ -26715,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26740,25 +26740,25 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593891</v>
+        <v>117.5602045593903</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464223</v>
+        <v>372.0396308464236</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26962,16 +26962,16 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.5389438402638</v>
+        <v>82.53894384026496</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576975</v>
+        <v>260.1834596576963</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406814</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.247641908132</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023553</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.883117144067</v>
+        <v>95.88311714406814</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081318</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406814</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.247641908132</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>242.8094906507028</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>376.4567588564208</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>82.67334639532538</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>214.3103231673396</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>140.7311001689623</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.569146015438932</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225838161</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528918</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128811</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>192.2558301280908</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385216</v>
+        <v>119.1491860495376</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>198.2506096409303</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,16 +27675,16 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>56.23690163857168</v>
+        <v>14.19830780962997</v>
       </c>
     </row>
     <row r="6">
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281872</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>42.93814232794188</v>
+        <v>84.45800155129663</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
@@ -27754,13 +27754,13 @@
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.740305804507301</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>9.268979302586416</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>160.3423548015529</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.3712176435846</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322663</v>
+        <v>68.41045236322645</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255179</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>22.82498396490621</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.3911277678952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.795206891204089</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.410856718809461e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
     </row>
     <row r="33">
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30273,16 +30273,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246796</v>
+        <v>0.4726038374246843</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025501</v>
+        <v>4.840054050025549</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231498</v>
+        <v>18.22005944231516</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662294</v>
+        <v>40.11165994662333</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480964</v>
+        <v>60.11698038481023</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439518</v>
+        <v>74.58043007439592</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819634</v>
+        <v>82.98509856819715</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127921</v>
+        <v>84.32788422128004</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288755</v>
+        <v>79.62842981288833</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646575</v>
+        <v>67.96102257646643</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.0358976486944</v>
+        <v>51.03589764869491</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262806</v>
+        <v>29.68720080262835</v>
       </c>
       <c r="S5" t="n">
-        <v>10.7694599453149</v>
+        <v>10.769459945315</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326536</v>
+        <v>2.068823298326556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397436</v>
+        <v>0.03780830699397474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560446</v>
+        <v>0.2528653456560471</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941273</v>
+        <v>2.442146890941297</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596272</v>
+        <v>8.706109488596358</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182832</v>
+        <v>23.89022987182856</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078331</v>
+        <v>40.83220803078371</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483547</v>
+        <v>54.90394270483601</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486708</v>
+        <v>64.0703114848677</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270959</v>
+        <v>65.76606198271024</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106776</v>
+        <v>60.16309827106836</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496872</v>
+        <v>48.2861904349692</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128737</v>
+        <v>32.2780395612877</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134635</v>
+        <v>15.69983260134651</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707667</v>
+        <v>4.696862889707713</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359232</v>
+        <v>1.019224792359242</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368715</v>
+        <v>0.01663587800368731</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005378</v>
+        <v>0.2119938115005399</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886601</v>
+        <v>1.884817705886619</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761629</v>
+        <v>6.375232076761692</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308802</v>
+        <v>14.98796247308817</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342611</v>
+        <v>24.62982646342635</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072541</v>
+        <v>31.51769812072572</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094338</v>
+        <v>33.23099356094371</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898686</v>
+        <v>32.44083480898718</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736693</v>
+        <v>29.96436164736723</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275594</v>
+        <v>25.63968789275619</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846776</v>
+        <v>17.75159088846793</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651449</v>
+        <v>9.532012651651545</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513916</v>
+        <v>3.694473969513953</v>
       </c>
       <c r="T7" t="n">
-        <v>0.905791740047752</v>
+        <v>0.905791740047761</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912025</v>
+        <v>0.01156329880912037</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34792,13 +34792,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>67.64407789397694</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201042</v>
+        <v>28.16237059201082</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109938</v>
+        <v>164.1725419109944</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548584</v>
+        <v>256.4752296548591</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337561</v>
+        <v>302.1523988337569</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366724</v>
+        <v>292.2617450366733</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539462</v>
+        <v>230.330399653947</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926789</v>
+        <v>158.5267349926795</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.0451984341496</v>
+        <v>41.0451984341501</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557046</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>59.32644089560733</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.189908228421</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464223</v>
+        <v>372.0396308464236</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464223</v>
+        <v>269.6933552702971</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033529</v>
+        <v>311.4291731033534</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>232.7745516605761</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.373553211115</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543257</v>
+        <v>2.360334637543502</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104155</v>
+        <v>59.10772338104186</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278396</v>
+        <v>72.8148705227843</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821546</v>
+        <v>76.57300718821577</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614066</v>
+        <v>54.5494895614069</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764943</v>
+        <v>22.91824715764968</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.5103663981263</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>383.8211928074484</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>394.4928362664027</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>515.2185245587283</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>387.238612517683</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>441.2361441450404</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>639.309310412009</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>
